--- a/OreangHRMLoginTestCase.xlsx
+++ b/OreangHRMLoginTestCase.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUBHASHADHA\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUBHASHADHA\Desktop\GitHub\Automated-Testing-for-OrangeHRM-Login-Page-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A8A619-4527-48C6-B9AE-0503DA9BAF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926A03EE-4941-41BF-AE57-2F862C0D40F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{25372299-BF20-4DF2-AA0B-5BEE2F0FAEDC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="68">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -253,6 +253,18 @@
   </si>
   <si>
     <t>The system should display the error message in the loginpage. Password'Required'</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> As Expected</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -308,7 +320,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,7 +735,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -774,7 +786,9 @@
       <c r="A5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="11" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
@@ -858,9 +872,15 @@
       <c r="E12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="6"/>
+      <c r="F12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -879,9 +899,15 @@
       <c r="E13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="6"/>
+      <c r="F13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -899,9 +925,15 @@
       <c r="E14" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="6"/>
+      <c r="F14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -919,9 +951,15 @@
       <c r="E15" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="6"/>
+      <c r="F15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -939,9 +977,15 @@
       <c r="E16" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="6"/>
+      <c r="F16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
@@ -959,9 +1003,15 @@
       <c r="E17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="6"/>
+      <c r="F17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
@@ -979,9 +1029,15 @@
       <c r="E18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="6"/>
+      <c r="F18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
@@ -999,9 +1055,15 @@
       <c r="E19" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="6"/>
+      <c r="F19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/OreangHRMLoginTestCase.xlsx
+++ b/OreangHRMLoginTestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUBHASHADHA\Desktop\GitHub\Automated-Testing-for-OrangeHRM-Login-Page-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926A03EE-4941-41BF-AE57-2F862C0D40F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C1C0F3-EF2F-43F0-A808-D191444646AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{25372299-BF20-4DF2-AA0B-5BEE2F0FAEDC}"/>
   </bookViews>
@@ -734,7 +734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B08ECA-4D24-4AE0-A709-BE703BFFD278}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
